--- a/src/main/resources/BlancTranzit.xlsx
+++ b/src/main/resources/BlancTranzit.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="TRANZIT" sheetId="1" r:id="rId1"/>
+    <sheet name="TRANZIT EAEU AND CIS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="42">
   <si>
     <t>ТРАНЗИТ ПОДКАРАНТИННОЙ ПРОДУКЦИИ</t>
   </si>
@@ -72,13 +73,122 @@
   </si>
   <si>
     <t>тыс. м3</t>
+  </si>
+  <si>
+    <t>тыс. пак.</t>
+  </si>
+  <si>
+    <t>ТРАНЗИТ В АДРЕС СТРАН ЕВРАЗИЙСКОГО ЭКОНОМИЧЕСКОГО СОЮЗА И ГОСУДАРСТВ - УЧАСТНИЦ СНГ</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Наименование страны-получателя подкарантинной продукции</t>
+  </si>
+  <si>
+    <t>Автотранспорт</t>
+  </si>
+  <si>
+    <t>партий</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казахстан </t>
+  </si>
+  <si>
+    <t>Молдова</t>
+  </si>
+  <si>
+    <t>Таджикистан</t>
+  </si>
+  <si>
+    <t>Узбекистан</t>
+  </si>
+  <si>
+    <t>Кыргызстан</t>
+  </si>
+  <si>
+    <t>Туркменистан</t>
+  </si>
+  <si>
+    <t>Азербайджан</t>
+  </si>
+  <si>
+    <t>Армения</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
+  </si>
+  <si>
+    <t>В том числе в страны ЕАЭС</t>
+  </si>
+  <si>
+    <t>Брест</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Витебск</t>
+  </si>
+  <si>
+    <t>Гомель</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Могилев</t>
+  </si>
+  <si>
+    <t>Гродно</t>
+  </si>
+  <si>
+    <t>Минск</t>
+  </si>
+  <si>
+    <t>м3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +206,140 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +351,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -170,36 +418,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,130 +952,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="12" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>9</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>10</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>11</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>12</v>
       </c>
     </row>
@@ -613,5 +1087,1878 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:J87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" style="4" customWidth="1"/>
+    <col min="2" max="7" width="15.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="55" customWidth="1"/>
+    <col min="9" max="12" width="15.77734375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="46" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="37"/>
+    </row>
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="59"/>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="37"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="37"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="37"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="37"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="37"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="37"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="37"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="37"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+    </row>
+    <row r="59" spans="1:13" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
+    </row>
+    <row r="60" spans="1:13" s="48" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="37"/>
+    </row>
+    <row r="61" spans="1:13" s="48" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="59"/>
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+    </row>
+    <row r="62" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="37"/>
+    </row>
+    <row r="63" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="37"/>
+    </row>
+    <row r="64" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="37"/>
+    </row>
+    <row r="65" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="37"/>
+    </row>
+    <row r="66" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="37"/>
+    </row>
+    <row r="67" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="37"/>
+    </row>
+    <row r="68" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="37"/>
+    </row>
+    <row r="69" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="37"/>
+    </row>
+    <row r="70" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="37"/>
+    </row>
+    <row r="71" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="37"/>
+    </row>
+    <row r="72" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="37"/>
+    </row>
+    <row r="73" spans="1:13" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="1:13" s="48" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="37"/>
+    </row>
+    <row r="75" spans="1:13" s="48" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="59"/>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="37"/>
+    </row>
+    <row r="76" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="37"/>
+    </row>
+    <row r="77" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="37"/>
+    </row>
+    <row r="78" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="51"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="37"/>
+    </row>
+    <row r="79" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="37"/>
+    </row>
+    <row r="80" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="37"/>
+    </row>
+    <row r="81" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="37"/>
+    </row>
+    <row r="82" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="37"/>
+    </row>
+    <row r="83" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="37"/>
+    </row>
+    <row r="85" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="37"/>
+    </row>
+    <row r="86" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="52"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="37"/>
+    </row>
+    <row r="87" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A87" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="37"/>
+    </row>
+    <row r="88" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" s="37"/>
+    </row>
+    <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="59"/>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="37"/>
+    </row>
+    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="40"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="37"/>
+    </row>
+    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="40"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="37"/>
+    </row>
+    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="37"/>
+    </row>
+    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="37"/>
+    </row>
+    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="37"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="37"/>
+    </row>
+    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="37"/>
+    </row>
+    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="40"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="37"/>
+    </row>
+    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="37"/>
+    </row>
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="37"/>
+    </row>
+    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:G18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>